--- a/DefaultChart.xlsx
+++ b/DefaultChart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/atran52/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{532CFE29-3A5C-D442-A78A-44C6B48BE025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35955B87-C3B5-5C40-955B-2A82A9A1E797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15960" tabRatio="415" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
